--- a/Project/excel_source/major_abbreviations.xlsx
+++ b/Project/excel_source/major_abbreviations.xlsx
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project/excel_source/major_abbreviations.xlsx
+++ b/Project/excel_source/major_abbreviations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcuoncloud-my.sharepoint.com/personal/elettra_scianetti_johncabot_edu/Documents/Documents/advising/Project/excel_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="11_755902FFF613C836C26108A3C52C467D5DE88FEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FBDB49F-81EF-486C-AEF0-E00BF018AE57}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_755902FFF613C836C26108A3C52C467D5DE88FEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B64FBD93-AAFA-4629-969B-DD9BACD117ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
